--- a/src/resources/Loginusersdata.xlsx
+++ b/src/resources/Loginusersdata.xlsx
@@ -11,15 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Ahd+4@runtastic.eu</t>
   </si>
   <si>
     <t>Testtest1</t>
-  </si>
-  <si>
-    <t>Ahd+6@runtastic.eu</t>
   </si>
 </sst>
 </file>
@@ -289,14 +286,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
